--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -5,32 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\college shit\Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BACE37E-E5DD-4D0E-A7CF-764F004D0407}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDF3067-8F28-4AF5-ACC4-1AE3B4A9EDAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{2E6151D0-4711-42C0-8C5C-7DF79B1E3C7F}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Cost</t>
   </si>
@@ -56,9 +51,6 @@
     <t>23x11 3mm transparent cast acrylic</t>
   </si>
   <si>
-    <t>For case</t>
-  </si>
-  <si>
     <t>Plasticworld</t>
   </si>
   <si>
@@ -92,24 +84,15 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/product-detail/en/adafruit-industries-llc/1980/1528-1037-ND/4990786</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
-    <t>The shiping is $8 and HST is $1.30</t>
-  </si>
-  <si>
     <t>Raspberry Pi kit</t>
   </si>
   <si>
     <t>Current price is lower</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CanaKit-Raspberry-Complete-Starter-Kit/dp/B01C6Q2GSY</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -119,13 +102,28 @@
     <t>LED Strip Light</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/LEDMO-Flexible-Non-Waterproof-Daylight-Gardens/dp/B01FHMSGU6/ref=sr_1_1_sspa?keywords=white+LED+strip+lights&amp;qid=1569296246&amp;s=hi&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFNMFhSUVo1OVgyQTImZW5jcnlwdGVkSWQ9QTA5NTkyNjcyM1BRTThSNkZWRFdBJmVuY3J5cHRlZEFkSWQ9QTA4NTg2NjUySkVSTzFJREFCSkQ5JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
-  </si>
-  <si>
-    <t>Total Cost of Parts to be Purcchased= $26.27</t>
-  </si>
-  <si>
     <t>(All the costs are in Canadian Dollars)</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2lTpzYk</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2a0qTjk</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2msTV4g</t>
+  </si>
+  <si>
+    <t>For case (shared)</t>
+  </si>
+  <si>
+    <t>Total Cost of Parts to be Purcchased= $17.93</t>
+  </si>
+  <si>
+    <t>For case (shared cost in half)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shiping is $8 but will be reduced shipping i.e. $2.66 ($8/3) and HST is $1.30 </t>
   </si>
 </sst>
 </file>
@@ -223,7 +221,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency 2" xfId="1" xr:uid="{5AD82189-5A1B-49DF-A7BE-8514824A8C12}"/>
+    <cellStyle name="Currency 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -536,37 +534,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE4184B-0C86-4448-9EE0-0EEBF856F9D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
@@ -587,12 +588,12 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>9.9700000000000006</v>
@@ -604,13 +605,13 @@
         <v>19.27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -627,18 +628,18 @@
         <v>11.3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8">
         <v>5.65</v>
@@ -650,18 +651,18 @@
         <v>5.65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6">
         <v>2.5</v>
@@ -673,16 +674,16 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6">
         <v>1.5</v>
@@ -694,16 +695,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>1.5</v>
@@ -715,16 +716,16 @@
         <v>1.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -740,12 +741,12 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10">
         <v>85.37</v>
@@ -757,21 +758,21 @@
         <v>85.37</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="10">
         <v>18.98</v>
@@ -786,10 +787,10 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -799,11 +800,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{CA3C8122-911F-4082-A996-2A322B12A744}"/>
-    <hyperlink ref="H12" r:id="rId2" xr:uid="{CE310C7E-22A2-42A4-A3A5-21329BEF1619}"/>
-    <hyperlink ref="H13" r:id="rId3" display="https://www.amazon.ca/LEDMO-Flexible-Non-Waterproof-Daylight-Gardens/dp/B01FHMSGU6/ref=sr_1_1_sspa?keywords=white+LED+strip+lights&amp;qid=1569296246&amp;s=hi&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFNMFhSUVo1OVgyQTImZW5jcnlwdGVkSWQ9QTA5NTkyNjcyM1BRTThSNkZWRFdBJmVuY3J5cHRlZEFkSWQ9QTA4NTg2NjUySkVSTzFJREFCSkQ5JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{848CAC97-90E0-43A2-9BFD-6BF0903F9EE2}"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDF3067-8F28-4AF5-ACC4-1AE3B4A9EDAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AB81C-CB25-448A-8D55-A60FBB034DA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\college shit\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AB81C-CB25-448A-8D55-A60FBB034DA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7297831A-5AA3-4861-8A4A-563DAC3888EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Cost</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t xml:space="preserve">The shiping is $8 but will be reduced shipping i.e. $2.66 ($8/3) and HST is $1.30 </t>
+  </si>
+  <si>
+    <t>USB3 to Ethernet</t>
+  </si>
+  <si>
+    <t>for connecting pi to laptop</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/css/order-history?ref_=nav_orders_first</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +719,7 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4">
         <v>1.5</v>
@@ -793,9 +802,35 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="10">
+        <v>20.05</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>22.66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42.48</v>
       </c>
     </row>
   </sheetData>
@@ -803,8 +838,9 @@
     <hyperlink ref="H12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{C00869F9-4916-4481-93A2-C9C29E6028B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId4"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -8,27 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\college shit\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7297831A-5AA3-4861-8A4A-563DAC3888EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B8B2F2-E0BF-4096-9B47-C623E88AA817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
-  <si>
-    <t>Cost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Number</t>
   </si>
@@ -51,21 +54,6 @@
     <t>23x11 3mm transparent cast acrylic</t>
   </si>
   <si>
-    <t>Plasticworld</t>
-  </si>
-  <si>
-    <t>11x11 3mm black cast acrylic</t>
-  </si>
-  <si>
-    <t>Standoffs M-M (x4)</t>
-  </si>
-  <si>
-    <t>A1 parts</t>
-  </si>
-  <si>
-    <t>Standoffs M-F (x2)</t>
-  </si>
-  <si>
     <t>Screws</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>Parts Kit</t>
   </si>
   <si>
-    <t>LED Strip Light</t>
-  </si>
-  <si>
     <t>(All the costs are in Canadian Dollars)</t>
   </si>
   <si>
@@ -111,18 +96,6 @@
     <t>https://amzn.to/2a0qTjk</t>
   </si>
   <si>
-    <t>https://amzn.to/2msTV4g</t>
-  </si>
-  <si>
-    <t>For case (shared)</t>
-  </si>
-  <si>
-    <t>Total Cost of Parts to be Purcchased= $17.93</t>
-  </si>
-  <si>
-    <t>For case (shared cost in half)</t>
-  </si>
-  <si>
     <t xml:space="preserve">The shiping is $8 but will be reduced shipping i.e. $2.66 ($8/3) and HST is $1.30 </t>
   </si>
   <si>
@@ -133,6 +106,18 @@
   </si>
   <si>
     <t>https://www.amazon.ca/gp/css/order-history?ref_=nav_orders_first</t>
+  </si>
+  <si>
+    <t>Received from prototype lab</t>
+  </si>
+  <si>
+    <t>Prototype Lab</t>
+  </si>
+  <si>
+    <t>Initial Cost</t>
+  </si>
+  <si>
+    <t>Total Cost of Parts to be Purchased=</t>
   </si>
 </sst>
 </file>
@@ -547,15 +532,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
@@ -565,44 +551,44 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
         <v>9.9700000000000006</v>
@@ -614,18 +600,18 @@
         <v>19.27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>11.3</v>
@@ -634,213 +620,125 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5.65</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>5.65</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10">
+        <v>85.37</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
       <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10">
+        <v>20.05</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>22.66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10">
-        <v>85.37</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10">
-        <v>85.37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="10">
-        <v>18.98</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <v>18.98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="10">
-        <v>20.05</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>22.66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10">
-        <v>42.48</v>
+        <f>SUM(D5:D10)</f>
+        <v>41.93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{C00869F9-4916-4481-93A2-C9C29E6028B2}"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{C00869F9-4916-4481-93A2-C9C29E6028B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId5"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\college shit\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B8B2F2-E0BF-4096-9B47-C623E88AA817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399B6CB-A395-4124-A4FC-941F0D94D788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Budget for LED intensity control using Luminosity Sensor</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Total Cost of Parts to be Purchased=</t>
+  </si>
+  <si>
+    <t>Budget for Luminosity Sensor</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,12 +551,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -600,13 +600,13 @@
         <v>19.27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -644,11 +644,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -669,12 +669,12 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10">
         <v>85.37</v>
@@ -686,21 +686,21 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>20.05</v>
@@ -712,18 +712,18 @@
         <v>22.66</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>

--- a/Documentation/Budget.xlsx
+++ b/Documentation/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnal K\Documents\college shit\GitHub\Resistor-Value-Recoganizer-RVR\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399B6CB-A395-4124-A4FC-941F0D94D788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8544139-F7F1-4A88-9D9A-93F062077CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>19.27</v>
+        <v>13.93</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -729,7 +729,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="4">
         <f>SUM(D5:D10)</f>
-        <v>41.93</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
   </sheetData>
